--- a/Lab4/ЛР4_руками.xlsx
+++ b/Lab4/ЛР4_руками.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Umar\Github\Modelirovanie\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C7B6ED-997E-427B-A849-812463277E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C698D5A6-38F1-40C7-9E59-F265ACF495A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{E4D109FA-9536-44FC-93C1-C834A626FCFC}"/>
   </bookViews>
@@ -2553,6 +2553,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88404</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC47F91C-65D7-E56C-D1D8-D6287EC22121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2453640" y="1158240"/>
+          <a:ext cx="5544324" cy="2076740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2876,7 +2920,7 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2997,7 +3041,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="18">
         <f>Мода!E1</f>
-        <v>-1.48</v>
+        <v>-1.38</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>21</v>
@@ -3774,7 +3818,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3787,7 +3831,7 @@
         <v>-6.51</v>
       </c>
       <c r="C1">
-        <f>COUNTIF(A:A, B2)</f>
+        <f>COUNTIF(A:A, B1)</f>
         <v>1</v>
       </c>
       <c r="D1">
@@ -3795,8 +3839,8 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <f>INDEX(B:B, MATCH(D1, C:C, 0))</f>
-        <v>-1.48</v>
+        <f>INDEX(A:A, MATCH(D1, C:C, 0))</f>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3807,7 +3851,7 @@
         <v>-5.36</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C50" si="0">COUNTIF(A:A, B3)</f>
+        <f t="shared" ref="C2:C50" si="0">COUNTIF(A:A, B2)</f>
         <v>1</v>
       </c>
     </row>
@@ -3856,7 +3900,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3928,7 +3972,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3976,7 +4020,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4012,7 +4056,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4324,7 +4368,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
